--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/os210/Documents/GitHub/kpcascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031A0EB-68CA-F34D-B411-83DAE7207634}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD5683-A4F3-FC4C-8003-0C81E8C210F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{9839EB20-7F37-964E-A320-B75EE5B780FA}"/>
+    <workbookView xWindow="12160" yWindow="1140" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{9839EB20-7F37-964E-A320-B75EE5B780FA}"/>
   </bookViews>
   <sheets>
     <sheet name="90_90_90" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
   <si>
     <t>Unadj</t>
   </si>
@@ -198,52 +198,34 @@
     <t>Lab-DBS</t>
   </si>
   <si>
-    <t>aware</t>
+    <t>Cascade status</t>
   </si>
   <si>
-    <t>onART</t>
+    <t>Key population</t>
   </si>
   <si>
-    <t>vSupp</t>
+    <t>City/Region</t>
   </si>
   <si>
-    <t>casState</t>
+    <t>Point Estimate</t>
   </si>
   <si>
-    <t>prev</t>
+    <t>Lower Bound</t>
   </si>
   <si>
-    <t>sizeEst</t>
+    <t>Upper Bound</t>
   </si>
   <si>
-    <t>year</t>
+    <t>Size Estimate</t>
   </si>
   <si>
-    <t>city</t>
+    <t>Prevalence</t>
   </si>
   <si>
-    <t>point_90</t>
+    <t>Aware of Status</t>
   </si>
   <si>
-    <t>ll_90</t>
-  </si>
-  <si>
-    <t>ul_90</t>
-  </si>
-  <si>
-    <t>point_72</t>
-  </si>
-  <si>
-    <t>ll_72</t>
-  </si>
-  <si>
-    <t>ul_72</t>
-  </si>
-  <si>
-    <t>gap_90</t>
-  </si>
-  <si>
-    <t>gap_72</t>
+    <t>Virally Suppressed</t>
   </si>
 </sst>
 </file>
@@ -387,7 +369,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -420,11 +402,9 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,9 +414,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -455,24 +451,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -491,45 +470,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6956,21 +6905,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D408E15-D182-CF42-97D2-213F8A59E797}" name="Table1" displayName="Table1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:L31" xr:uid="{8C58021F-7D9E-0E4D-8FD8-27AFC59359F5}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BD5B8CE3-0EFB-6A40-A863-C87F09747552}" name="casState"/>
-    <tableColumn id="2" xr3:uid="{02F253BF-F4DA-7B4A-8F13-359F19DF6A8D}" name="KP"/>
-    <tableColumn id="3" xr3:uid="{98BE1F5A-8574-2843-8DF1-D77550726EB1}" name="year"/>
-    <tableColumn id="4" xr3:uid="{DED8635C-9B3F-0347-9FEA-58F82B56021C}" name="city"/>
-    <tableColumn id="5" xr3:uid="{B73E1C56-5024-9143-BC23-B21B46BFA0DD}" name="point_90" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{C3FF04BD-457C-2746-8888-E4B2E5D2745D}" name="ll_90" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{92E2ADDC-F262-1A4D-8077-1AB7D5650F9B}" name="ul_90" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{B297D514-69B5-0344-ABC0-20F9F9536E5B}" name="gap_90" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{51FD0640-7C18-2549-865C-3DEB04E7B660}" name="point_72" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{597EFFEA-884A-8B43-A6AE-431070122738}" name="ll_72" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{B3A9DBA7-E2FF-AB47-A5AD-D936E0C0D01D}" name="ul_72" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{16BDEE55-B0CB-974E-939B-ADCA857C3E11}" name="gap_72" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D408E15-D182-CF42-97D2-213F8A59E797}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G31" xr:uid="{8C58021F-7D9E-0E4D-8FD8-27AFC59359F5}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BD5B8CE3-0EFB-6A40-A863-C87F09747552}" name="Cascade status"/>
+    <tableColumn id="2" xr3:uid="{02F253BF-F4DA-7B4A-8F13-359F19DF6A8D}" name="Key population"/>
+    <tableColumn id="3" xr3:uid="{98BE1F5A-8574-2843-8DF1-D77550726EB1}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{DED8635C-9B3F-0347-9FEA-58F82B56021C}" name="City/Region"/>
+    <tableColumn id="5" xr3:uid="{B73E1C56-5024-9143-BC23-B21B46BFA0DD}" name="Point Estimate" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{C3FF04BD-457C-2746-8888-E4B2E5D2745D}" name="Lower Bound" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{92E2ADDC-F262-1A4D-8077-1AB7D5650F9B}" name="Upper Bound" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7370,7 +7314,7 @@
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
@@ -7437,10 +7381,10 @@
         <f>U2-S2</f>
         <v>1148.8654301819697</v>
       </c>
-      <c r="AY2" s="23">
+      <c r="AY2" s="21">
         <v>2018</v>
       </c>
-      <c r="AZ2" s="23" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>41</v>
       </c>
       <c r="BA2" t="s">
@@ -7468,7 +7412,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -7542,8 +7486,8 @@
         <f>U3-S3</f>
         <v>1135.686373645372</v>
       </c>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
       <c r="BA3" t="s">
         <v>13</v>
       </c>
@@ -7569,7 +7513,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -7643,8 +7587,8 @@
         <f>U4-S4</f>
         <v>1104.6605185251883</v>
       </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
       <c r="BA4" t="s">
         <v>39</v>
       </c>
@@ -7670,7 +7614,7 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -7744,8 +7688,8 @@
         <f t="shared" ref="AA5:AA29" si="2">U5-S5</f>
         <v>1135.0544939073593</v>
       </c>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
       <c r="BA5" t="s">
         <v>38</v>
       </c>
@@ -7771,7 +7715,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7785,11 +7729,11 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
@@ -7856,8 +7800,8 @@
         <f>U7-S7</f>
         <v>876.39666284260966</v>
       </c>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23" t="s">
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="BA7" t="s">
@@ -7885,7 +7829,7 @@
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -7959,8 +7903,8 @@
         <f t="shared" si="2"/>
         <v>773.42820468498826</v>
       </c>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
       <c r="BA8" t="s">
         <v>13</v>
       </c>
@@ -7986,7 +7930,7 @@
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -8060,8 +8004,8 @@
         <f t="shared" si="2"/>
         <v>584.35707277935137</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
       <c r="BA9" t="s">
         <v>39</v>
       </c>
@@ -8087,7 +8031,7 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -8161,8 +8105,8 @@
         <f t="shared" si="2"/>
         <v>544.78614907917654</v>
       </c>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
       <c r="BA10" t="s">
         <v>38</v>
       </c>
@@ -8188,7 +8132,7 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8202,11 +8146,11 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
@@ -8273,8 +8217,8 @@
         <f>U12-S12</f>
         <v>630.04858904997036</v>
       </c>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23" t="s">
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21" t="s">
         <v>43</v>
       </c>
       <c r="BA12" t="s">
@@ -8302,7 +8246,7 @@
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -8376,8 +8320,8 @@
         <f t="shared" si="2"/>
         <v>827.84202139276294</v>
       </c>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
       <c r="BA13" t="s">
         <v>13</v>
       </c>
@@ -8403,7 +8347,7 @@
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="21"/>
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -8477,8 +8421,8 @@
         <f t="shared" si="2"/>
         <v>1009.7664061119008</v>
       </c>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
       <c r="BA14" t="s">
         <v>39</v>
       </c>
@@ -8504,7 +8448,7 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -8578,8 +8522,8 @@
         <f t="shared" si="2"/>
         <v>1123.635812469367</v>
       </c>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
       <c r="BA15" t="s">
         <v>38</v>
       </c>
@@ -8620,7 +8564,7 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B17" t="s">
@@ -8687,10 +8631,10 @@
         <f>U17-S17</f>
         <v>1949.6321729808406</v>
       </c>
-      <c r="AY17" s="23" t="s">
+      <c r="AY17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AZ17" s="23" t="s">
+      <c r="AZ17" s="21" t="s">
         <v>44</v>
       </c>
       <c r="BA17" t="s">
@@ -8718,7 +8662,7 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -8792,8 +8736,8 @@
         <f t="shared" si="2"/>
         <v>1627.6624333738314</v>
       </c>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="23"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21"/>
       <c r="BA18" t="s">
         <v>13</v>
       </c>
@@ -8819,7 +8763,7 @@
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -8893,8 +8837,8 @@
         <f t="shared" si="2"/>
         <v>1137.6436497788652</v>
       </c>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="23"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
       <c r="BA19" t="s">
         <v>39</v>
       </c>
@@ -8920,7 +8864,7 @@
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -8946,8 +8890,8 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="23"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
       <c r="BA20" t="s">
         <v>40</v>
       </c>
@@ -8968,10 +8912,10 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="AY21" s="23"/>
+      <c r="AY21" s="21"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
@@ -9038,8 +8982,8 @@
         <f>U22-S22</f>
         <v>921.55200643390981</v>
       </c>
-      <c r="AY22" s="23"/>
-      <c r="AZ22" s="23" t="s">
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="21" t="s">
         <v>45</v>
       </c>
       <c r="BA22" t="s">
@@ -9067,7 +9011,7 @@
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -9141,8 +9085,8 @@
         <f t="shared" si="2"/>
         <v>782.62659043421695</v>
       </c>
-      <c r="AY23" s="23"/>
-      <c r="AZ23" s="23"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
       <c r="BA23" t="s">
         <v>13</v>
       </c>
@@ -9168,7 +9112,7 @@
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="21"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -9242,8 +9186,8 @@
         <f t="shared" si="2"/>
         <v>588.80143921405784</v>
       </c>
-      <c r="AY24" s="23"/>
-      <c r="AZ24" s="23"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
       <c r="BA24" t="s">
         <v>39</v>
       </c>
@@ -9269,7 +9213,7 @@
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="21"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -9295,8 +9239,8 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
       <c r="BA25" t="s">
         <v>40</v>
       </c>
@@ -9317,10 +9261,10 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="AY26" s="23"/>
+      <c r="AY26" s="21"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
@@ -9387,8 +9331,8 @@
         <f>U27-S27</f>
         <v>2050.4983597270211</v>
       </c>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="23" t="s">
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21" t="s">
         <v>46</v>
       </c>
       <c r="BA27" t="s">
@@ -9416,7 +9360,7 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -9490,8 +9434,8 @@
         <f t="shared" si="2"/>
         <v>1903.007368162399</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
       <c r="BA28" t="s">
         <v>13</v>
       </c>
@@ -9517,7 +9461,7 @@
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -9591,8 +9535,8 @@
         <f t="shared" si="2"/>
         <v>1399.6671776984244</v>
       </c>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
       <c r="BA29" t="s">
         <v>39</v>
       </c>
@@ -9618,7 +9562,7 @@
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -9640,8 +9584,8 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="AY30" s="23"/>
-      <c r="AZ30" s="23"/>
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
       <c r="BA30" t="s">
         <v>40</v>
       </c>
@@ -9753,6 +9697,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="AZ27:AZ30"/>
     <mergeCell ref="AY17:AY30"/>
     <mergeCell ref="AY2:AY15"/>
@@ -9761,12 +9711,6 @@
     <mergeCell ref="AZ12:AZ15"/>
     <mergeCell ref="AZ17:AZ20"/>
     <mergeCell ref="AZ22:AZ25"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9775,59 +9719,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6512AD94-F904-2043-BA62-3CEB4E62A06E}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -9838,21 +9767,19 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22">
-        <v>3499.4389881461002</v>
-      </c>
-      <c r="F2" s="22">
-        <v>2350.57355796414</v>
-      </c>
-      <c r="G2" s="22">
-        <v>4648.3044183280699</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="L2" s="19"/>
+      <c r="E2" s="20">
+        <v>3499</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2351</v>
+      </c>
+      <c r="G2" s="20">
+        <v>4648</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -9864,20 +9791,18 @@
         <v>10</v>
       </c>
       <c r="E3" s="18">
-        <v>0.60381516077885</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F3" s="18">
-        <v>0.56277618380359495</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G3" s="18">
-        <v>0.64682902263211595</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="L3" s="19"/>
+        <v>0.64700000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9889,35 +9814,18 @@
         <v>10</v>
       </c>
       <c r="E4" s="18">
-        <v>0.80662476887698997</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="F4" s="18">
-        <v>0.75634758434472504</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G4" s="18">
-        <v>0.85158375665973196</v>
-      </c>
-      <c r="H4" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>9.337523112301005E-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0.80662476887698997</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0.75634758434472504</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.85158375665973196</v>
-      </c>
-      <c r="L4" s="19">
-        <f>0.9-I4</f>
-        <v>9.337523112301005E-2</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -9929,35 +9837,18 @@
         <v>10</v>
       </c>
       <c r="E5" s="18">
-        <v>0.74985521117280596</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="18">
-        <v>0.70242186440950005</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G5" s="18">
-        <v>0.81378479382272395</v>
-      </c>
-      <c r="H5" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.15014478882719406</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0.60485178640347115</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0.5312750803370434</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.6930059118361207</v>
-      </c>
-      <c r="L5" s="19">
-        <f>0.82-I5</f>
-        <v>0.2151482135965288</v>
+        <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -9969,35 +9860,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="18">
-        <v>0.85886487654657395</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F6" s="18">
-        <v>0.79332169304641498</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="G6" s="18">
-        <v>0.91669874262950501</v>
-      </c>
-      <c r="H6" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>4.113512345342607E-2</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.519485954858392</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.42147204620635342</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.63527764801498543</v>
-      </c>
-      <c r="L6" s="19">
-        <f>0.72-I6</f>
-        <v>0.20051404514160798</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -10008,24 +9882,19 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22">
-        <v>2384.2125121436502</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1507.8158493010301</v>
-      </c>
-      <c r="G7" s="22">
-        <v>3260.6091749862599</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="E7" s="20">
+        <v>2384</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1508</v>
+      </c>
+      <c r="G7" s="20">
+        <v>3261</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -10037,23 +9906,18 @@
         <v>18</v>
       </c>
       <c r="E8" s="18">
-        <v>0.36505652466935301</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F8" s="18">
-        <v>0.32536348061530601</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G8" s="18">
-        <v>0.41025791564206399</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -10065,35 +9929,18 @@
         <v>18</v>
       </c>
       <c r="E9" s="18">
-        <v>0.69265069238941102</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="F9" s="18">
-        <v>0.63082686115936304</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="G9" s="18">
-        <v>0.74368147848783595</v>
-      </c>
-      <c r="H9" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.20734930761058901</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0.69265069238941102</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.63082686115936304</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.74368147848783595</v>
-      </c>
-      <c r="L9" s="19">
-        <f>0.9-I9</f>
-        <v>0.20734930761058901</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -10105,35 +9952,18 @@
         <v>18</v>
       </c>
       <c r="E10" s="18">
-        <v>0.40316284485155102</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="F10" s="18">
-        <v>0.32647688283176901</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G10" s="18">
-        <v>0.51555702784414803</v>
-      </c>
-      <c r="H10" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.49683715514844901</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0.27925102363211152</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0.205950387237858</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.38341021271193043</v>
-      </c>
-      <c r="L10" s="19">
-        <f>0.82-I10</f>
-        <v>0.54074897636788843</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -10145,35 +9975,18 @@
         <v>18</v>
       </c>
       <c r="E11" s="18">
-        <v>0.73936411847078398</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="F11" s="18">
-        <v>0.60235706739894102</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="G11" s="18">
-        <v>0.82954003318422398</v>
-      </c>
-      <c r="H11" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.16063588152921604</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0.20646818691982019</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.12405567128627243</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.31805412057622512</v>
-      </c>
-      <c r="L11" s="19">
-        <f>0.72-I11</f>
-        <v>0.51353181308017981</v>
+        <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -10184,24 +9997,19 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="22">
-        <v>6988.9386626634396</v>
-      </c>
-      <c r="F12" s="22">
-        <v>6358.8900736134601</v>
-      </c>
-      <c r="G12" s="22">
-        <v>7618.9872517134099</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="E12" s="20">
+        <v>6989</v>
+      </c>
+      <c r="F12" s="20">
+        <v>6359</v>
+      </c>
+      <c r="G12" s="20">
+        <v>7619</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -10213,23 +10021,18 @@
         <v>12</v>
       </c>
       <c r="E13" s="18">
-        <v>0.75475549989103696</v>
+        <v>0.755</v>
       </c>
       <c r="F13" s="18">
-        <v>0.71479614868575903</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G13" s="18">
-        <v>0.79493301609544198</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+        <v>0.79500000000000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -10241,35 +10044,18 @@
         <v>12</v>
       </c>
       <c r="E14" s="18">
-        <v>0.86082932381477495</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F14" s="18">
-        <v>0.82274041794770203</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="G14" s="18">
-        <v>0.89829857150858405</v>
-      </c>
-      <c r="H14" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>3.9170676185225073E-2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0.86082932381477495</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0.82274041794770203</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0.89829857150858405</v>
-      </c>
-      <c r="L14" s="19">
-        <f>0.9-I14</f>
-        <v>3.9170676185225073E-2</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -10281,35 +10067,18 @@
         <v>12</v>
       </c>
       <c r="E15" s="18">
-        <v>0.59534430667900495</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F15" s="18">
-        <v>0.516788911883441</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="G15" s="18">
-        <v>0.67087117743491398</v>
-      </c>
-      <c r="H15" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.30465569332099507</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0.5124898369554638</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0.42518312535372038</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.60264262035606508</v>
-      </c>
-      <c r="L15" s="19">
-        <f>0.82-I15</f>
-        <v>0.30751016304453616</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -10321,35 +10090,18 @@
         <v>12</v>
       </c>
       <c r="E16" s="18">
-        <v>0.83090681651528797</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F16" s="18">
-        <v>0.77320931855739305</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="G16" s="18">
-        <v>0.89289361462012096</v>
-      </c>
-      <c r="H16" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>6.9093183484712051E-2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0.42583129892110338</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.32875555461685274</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0.53809574761386825</v>
-      </c>
-      <c r="L16" s="19">
-        <f>0.72-I16</f>
-        <v>0.29416870107889659</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -10360,24 +10112,19 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22">
-        <v>5111.7911240208796</v>
-      </c>
-      <c r="F17" s="22">
-        <v>3162.1589510400399</v>
-      </c>
-      <c r="G17" s="22">
-        <v>7061.4232970017201</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="E17" s="20">
+        <v>5112</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3162</v>
+      </c>
+      <c r="G17" s="20">
+        <v>7061</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -10389,23 +10136,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="18">
-        <v>0.66362857081584203</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="F18" s="18">
-        <v>0.62067283377538995</v>
+        <v>0.621</v>
       </c>
       <c r="G18" s="18">
-        <v>0.69139566639060501</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+        <v>0.69099999999999995</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -10417,35 +10159,18 @@
         <v>10</v>
       </c>
       <c r="E19" s="18">
-        <v>0.65628615374446397</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="F19" s="18">
-        <v>0.614018823811187</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G19" s="18">
-        <v>0.705588655337818</v>
-      </c>
-      <c r="H19" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.24371384625553605</v>
-      </c>
-      <c r="I19" s="19">
-        <v>0.65628615374446397</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0.614018823811187</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0.705588655337818</v>
-      </c>
-      <c r="L19" s="19">
-        <f>0.9-I19</f>
-        <v>0.24371384625553605</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -10457,35 +10182,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="18">
-        <v>0.41196777165228898</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F20" s="18">
-        <v>0.34096458252858702</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="G20" s="18">
-        <v>0.50571647575935796</v>
-      </c>
-      <c r="H20" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.48803222834771104</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0.27036874432435837</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0.20935867192547541</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0.35682780811322562</v>
-      </c>
-      <c r="L20" s="19">
-        <f>0.82-I20</f>
-        <v>0.54963125567564153</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -10499,15 +10207,10 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -10518,24 +10221,19 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="22">
-        <v>2442.3087067912502</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1520.7567003573499</v>
-      </c>
-      <c r="G22" s="22">
-        <v>3363.86071322516</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="E22" s="20">
+        <v>2442</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1521</v>
+      </c>
+      <c r="G22" s="20">
+        <v>3364</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -10547,23 +10245,18 @@
         <v>18</v>
       </c>
       <c r="E23" s="18">
-        <v>0.375536636985635</v>
+        <v>0.376</v>
       </c>
       <c r="F23" s="18">
-        <v>0.31074131635459501</v>
+        <v>0.311</v>
       </c>
       <c r="G23" s="18">
-        <v>0.43905718276795103</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+        <v>0.439</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -10575,35 +10268,18 @@
         <v>18</v>
       </c>
       <c r="E24" s="18">
-        <v>0.50349218680488295</v>
+        <v>0.503</v>
       </c>
       <c r="F24" s="18">
-        <v>0.45768094625327899</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G24" s="18">
-        <v>0.59821440708221596</v>
-      </c>
-      <c r="H24" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.39650781319511708</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0.50349218680488295</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0.45768094625327899</v>
-      </c>
-      <c r="K24" s="19">
-        <v>0.59821440708221596</v>
-      </c>
-      <c r="L24" s="19">
-        <f>0.9-I24</f>
-        <v>0.39650781319511708</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -10615,35 +10291,18 @@
         <v>18</v>
       </c>
       <c r="E25" s="18">
-        <v>0.455878298504443</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F25" s="18">
-        <v>0.35693660965854501</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G25" s="18">
-        <v>0.57117811189402501</v>
-      </c>
-      <c r="H25" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.44412170149555702</v>
-      </c>
-      <c r="I25" s="19">
-        <v>0.2295311614308912</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0.16336308526096016</v>
-      </c>
-      <c r="K25" s="19">
-        <v>0.34168697554502375</v>
-      </c>
-      <c r="L25" s="19">
-        <f>0.82-I25</f>
-        <v>0.59046883856910881</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -10657,15 +10316,10 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -10676,24 +10330,19 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="22">
-        <v>6324.6361523780497</v>
-      </c>
-      <c r="F27" s="22">
-        <v>4274.1377926510304</v>
-      </c>
-      <c r="G27" s="22">
-        <v>8375.1345121050708</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="E27" s="20">
+        <v>6325</v>
+      </c>
+      <c r="F27" s="20">
+        <v>4274</v>
+      </c>
+      <c r="G27" s="20">
+        <v>8375</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -10705,23 +10354,18 @@
         <v>12</v>
       </c>
       <c r="E28" s="18">
-        <v>0.67797780049231904</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="F28" s="18">
-        <v>0.63992895714339404</v>
+        <v>0.64</v>
       </c>
       <c r="G28" s="18">
-        <v>0.72917343264519896</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+        <v>0.72899999999999998</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -10733,35 +10377,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="18">
-        <v>0.75401723117157704</v>
+        <v>0.754</v>
       </c>
       <c r="F29" s="18">
-        <v>0.70876528035956599</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="G29" s="18">
-        <v>0.796631027036387</v>
-      </c>
-      <c r="H29" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.14598276882842298</v>
-      </c>
-      <c r="I29" s="19">
-        <v>0.75401723117157704</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0.70876528035956599</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0.796631027036387</v>
-      </c>
-      <c r="L29" s="19">
-        <f>0.9-I29</f>
-        <v>0.14598276882842298</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -10773,35 +10400,18 @@
         <v>12</v>
       </c>
       <c r="E30" s="18">
-        <v>0.46000003923163302</v>
+        <v>0.46</v>
       </c>
       <c r="F30" s="18">
-        <v>0.39717684210909798</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G30" s="18">
-        <v>0.538581004430293</v>
-      </c>
-      <c r="H30" s="18">
-        <f>0.9-Table1[[#This Row],[point_90]]</f>
-        <v>0.439999960768367</v>
-      </c>
-      <c r="I30" s="19">
-        <v>0.34684795592025275</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0.28150515584978192</v>
-      </c>
-      <c r="K30" s="19">
-        <v>0.4290503387015932</v>
-      </c>
-      <c r="L30" s="19">
-        <f>0.82-I30</f>
-        <v>0.4731520440797472</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -10815,44 +10425,36 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/os210/Documents/GitHub/kpcascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD5683-A4F3-FC4C-8003-0C81E8C210F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65185FB9-9474-E84B-86D3-6361D64162AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="1140" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{9839EB20-7F37-964E-A320-B75EE5B780FA}"/>
+    <workbookView xWindow="9600" yWindow="1140" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{9839EB20-7F37-964E-A320-B75EE5B780FA}"/>
   </bookViews>
   <sheets>
     <sheet name="90_90_90" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,7 +369,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -402,85 +402,18 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6904,22 +6837,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D408E15-D182-CF42-97D2-213F8A59E797}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G31" xr:uid="{8C58021F-7D9E-0E4D-8FD8-27AFC59359F5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BD5B8CE3-0EFB-6A40-A863-C87F09747552}" name="Cascade status"/>
-    <tableColumn id="2" xr3:uid="{02F253BF-F4DA-7B4A-8F13-359F19DF6A8D}" name="Key population"/>
-    <tableColumn id="3" xr3:uid="{98BE1F5A-8574-2843-8DF1-D77550726EB1}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{DED8635C-9B3F-0347-9FEA-58F82B56021C}" name="City/Region"/>
-    <tableColumn id="5" xr3:uid="{B73E1C56-5024-9143-BC23-B21B46BFA0DD}" name="Point Estimate" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{C3FF04BD-457C-2746-8888-E4B2E5D2745D}" name="Lower Bound" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{92E2ADDC-F262-1A4D-8077-1AB7D5650F9B}" name="Upper Bound" dataDxfId="0" dataCellStyle="Percent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7314,7 +7231,7 @@
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
@@ -7381,10 +7298,10 @@
         <f>U2-S2</f>
         <v>1148.8654301819697</v>
       </c>
-      <c r="AY2" s="21">
+      <c r="AY2" s="19">
         <v>2018</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>41</v>
       </c>
       <c r="BA2" t="s">
@@ -7412,7 +7329,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -7486,8 +7403,8 @@
         <f>U3-S3</f>
         <v>1135.686373645372</v>
       </c>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
       <c r="BA3" t="s">
         <v>13</v>
       </c>
@@ -7513,7 +7430,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -7587,8 +7504,8 @@
         <f>U4-S4</f>
         <v>1104.6605185251883</v>
       </c>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="21"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
       <c r="BA4" t="s">
         <v>39</v>
       </c>
@@ -7614,7 +7531,7 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -7688,8 +7605,8 @@
         <f t="shared" ref="AA5:AA29" si="2">U5-S5</f>
         <v>1135.0544939073593</v>
       </c>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
       <c r="BA5" t="s">
         <v>38</v>
       </c>
@@ -7715,7 +7632,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="19"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7729,11 +7646,11 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
@@ -7800,8 +7717,8 @@
         <f>U7-S7</f>
         <v>876.39666284260966</v>
       </c>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21" t="s">
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19" t="s">
         <v>42</v>
       </c>
       <c r="BA7" t="s">
@@ -7829,7 +7746,7 @@
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -7903,8 +7820,8 @@
         <f t="shared" si="2"/>
         <v>773.42820468498826</v>
       </c>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
       <c r="BA8" t="s">
         <v>13</v>
       </c>
@@ -7930,7 +7847,7 @@
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -8004,8 +7921,8 @@
         <f t="shared" si="2"/>
         <v>584.35707277935137</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
       <c r="BA9" t="s">
         <v>39</v>
       </c>
@@ -8031,7 +7948,7 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -8105,8 +8022,8 @@
         <f t="shared" si="2"/>
         <v>544.78614907917654</v>
       </c>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
       <c r="BA10" t="s">
         <v>38</v>
       </c>
@@ -8132,7 +8049,7 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8146,11 +8063,11 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
@@ -8217,8 +8134,8 @@
         <f>U12-S12</f>
         <v>630.04858904997036</v>
       </c>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21" t="s">
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19" t="s">
         <v>43</v>
       </c>
       <c r="BA12" t="s">
@@ -8246,7 +8163,7 @@
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -8320,8 +8237,8 @@
         <f t="shared" si="2"/>
         <v>827.84202139276294</v>
       </c>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
       <c r="BA13" t="s">
         <v>13</v>
       </c>
@@ -8347,7 +8264,7 @@
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -8421,8 +8338,8 @@
         <f t="shared" si="2"/>
         <v>1009.7664061119008</v>
       </c>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
       <c r="BA14" t="s">
         <v>39</v>
       </c>
@@ -8448,7 +8365,7 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -8522,8 +8439,8 @@
         <f t="shared" si="2"/>
         <v>1123.635812469367</v>
       </c>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
       <c r="BA15" t="s">
         <v>38</v>
       </c>
@@ -8564,7 +8481,7 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B17" t="s">
@@ -8631,10 +8548,10 @@
         <f>U17-S17</f>
         <v>1949.6321729808406</v>
       </c>
-      <c r="AY17" s="21" t="s">
+      <c r="AY17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AZ17" s="21" t="s">
+      <c r="AZ17" s="19" t="s">
         <v>44</v>
       </c>
       <c r="BA17" t="s">
@@ -8662,7 +8579,7 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -8736,8 +8653,8 @@
         <f t="shared" si="2"/>
         <v>1627.6624333738314</v>
       </c>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
       <c r="BA18" t="s">
         <v>13</v>
       </c>
@@ -8763,7 +8680,7 @@
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -8837,8 +8754,8 @@
         <f t="shared" si="2"/>
         <v>1137.6436497788652</v>
       </c>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
       <c r="BA19" t="s">
         <v>39</v>
       </c>
@@ -8864,7 +8781,7 @@
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -8890,8 +8807,8 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
       <c r="BA20" t="s">
         <v>40</v>
       </c>
@@ -8912,10 +8829,10 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="AY21" s="21"/>
+      <c r="AY21" s="19"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
@@ -8982,8 +8899,8 @@
         <f>U22-S22</f>
         <v>921.55200643390981</v>
       </c>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21" t="s">
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19" t="s">
         <v>45</v>
       </c>
       <c r="BA22" t="s">
@@ -9011,7 +8928,7 @@
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -9085,8 +9002,8 @@
         <f t="shared" si="2"/>
         <v>782.62659043421695</v>
       </c>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
       <c r="BA23" t="s">
         <v>13</v>
       </c>
@@ -9112,7 +9029,7 @@
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -9186,8 +9103,8 @@
         <f t="shared" si="2"/>
         <v>588.80143921405784</v>
       </c>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
       <c r="BA24" t="s">
         <v>39</v>
       </c>
@@ -9213,7 +9130,7 @@
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -9239,8 +9156,8 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
       <c r="BA25" t="s">
         <v>40</v>
       </c>
@@ -9261,10 +9178,10 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="AY26" s="21"/>
+      <c r="AY26" s="19"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
@@ -9331,8 +9248,8 @@
         <f>U27-S27</f>
         <v>2050.4983597270211</v>
       </c>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21" t="s">
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="BA27" t="s">
@@ -9360,7 +9277,7 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -9434,8 +9351,8 @@
         <f t="shared" si="2"/>
         <v>1903.007368162399</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
       <c r="BA28" t="s">
         <v>13</v>
       </c>
@@ -9461,7 +9378,7 @@
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -9535,8 +9452,8 @@
         <f t="shared" si="2"/>
         <v>1399.6671776984244</v>
       </c>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" t="s">
         <v>39</v>
       </c>
@@ -9562,7 +9479,7 @@
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -9584,8 +9501,8 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
       <c r="BA30" t="s">
         <v>40</v>
       </c>
@@ -9697,12 +9614,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="AZ27:AZ30"/>
     <mergeCell ref="AY17:AY30"/>
     <mergeCell ref="AY2:AY15"/>
@@ -9711,6 +9622,12 @@
     <mergeCell ref="AZ12:AZ15"/>
     <mergeCell ref="AZ17:AZ20"/>
     <mergeCell ref="AZ22:AZ25"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9719,16 +9636,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6512AD94-F904-2043-BA62-3CEB4E62A06E}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -9744,13 +9661,13 @@
       <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9768,13 +9685,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="20">
-        <v>3499</v>
+        <v>5793.0463576158945</v>
       </c>
       <c r="F2" s="20">
-        <v>2351</v>
+        <v>4175.8436944937839</v>
       </c>
       <c r="G2" s="20">
-        <v>4648</v>
+        <v>7183.9258114374034</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9883,13 +9800,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="20">
-        <v>2384</v>
+        <v>6531.5068493150684</v>
       </c>
       <c r="F7" s="20">
-        <v>1508</v>
+        <v>4640</v>
       </c>
       <c r="G7" s="20">
-        <v>3261</v>
+        <v>7953.6585365853662</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -9998,13 +9915,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="20">
-        <v>6989</v>
+        <v>9256.9536423841055</v>
       </c>
       <c r="F12" s="20">
-        <v>6359</v>
+        <v>8893.7062937062947</v>
       </c>
       <c r="G12" s="20">
-        <v>7619</v>
+        <v>9583.6477987421385</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10099,7 +10016,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -10113,16 +10030,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="20">
-        <v>5112</v>
+        <v>7698.795180722891</v>
       </c>
       <c r="F17" s="20">
-        <v>3162</v>
+        <v>5091.7874396135267</v>
       </c>
       <c r="G17" s="20">
-        <v>7061</v>
+        <v>10218.523878437049</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -10145,7 +10062,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -10168,7 +10085,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -10191,7 +10108,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -10208,7 +10125,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -10222,16 +10139,17 @@
         <v>18</v>
       </c>
       <c r="E22" s="20">
-        <v>2442</v>
+        <v>6494.6808510638293</v>
       </c>
       <c r="F22" s="20">
-        <v>1521</v>
+        <v>4890.6752411575562</v>
       </c>
       <c r="G22" s="20">
-        <v>3364</v>
-      </c>
+        <v>7662.8701594533031</v>
+      </c>
+      <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -10254,7 +10172,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -10277,7 +10195,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -10300,7 +10218,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10317,7 +10235,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -10331,16 +10249,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="20">
-        <v>6325</v>
+        <v>9328.9085545722701</v>
       </c>
       <c r="F27" s="20">
-        <v>4274</v>
+        <v>6678.125</v>
       </c>
       <c r="G27" s="20">
-        <v>8375</v>
+        <v>11488.340192043896</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -10363,7 +10281,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -10386,7 +10304,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -10409,7 +10327,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -10422,44 +10340,11 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>